--- a/examples/protocols/multicolor-particle-calibration/artifacts/multicolor-particle-calibration_template.xlsx
+++ b/examples/protocols/multicolor-particle-calibration/artifacts/multicolor-particle-calibration_template.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.736</t>
+          <t>MeasureFluorescence.measurements.138</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.915</t>
+          <t>MeasureFluorescence.measurements.586</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>fluoroscein (uM)</t>
+          <t>fluorescein (uM)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1119,7 +1119,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1839,7 +1839,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1919,7 +1919,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1959,7 +1959,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001953125</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0009765625</v>
+        <v>0.25</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.25</v>
+        <v>0.03125</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.125</v>
+        <v>0.015625</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0625</v>
+        <v>0.0078125</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03125</v>
+        <v>0.00390625</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.015625</v>
+        <v>0.001953125</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0078125</v>
+        <v>0.0009765625</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001953125</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0009765625</v>
+        <v>0.25</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.25</v>
+        <v>0.03125</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.125</v>
+        <v>0.015625</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0625</v>
+        <v>0.0078125</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03125</v>
+        <v>0.00390625</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.015625</v>
+        <v>0.001953125</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0078125</v>
+        <v>0.0009765625</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3039,7 +3039,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -3279,7 +3279,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3999,7 +3999,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>2929687.5</v>
+        <v>750000000</v>
       </c>
       <c r="J75" t="n">
         <v>200</v>
@@ -4039,7 +4039,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1464843.75</v>
+        <v>375000000</v>
       </c>
       <c r="J76" t="n">
         <v>200</v>
@@ -4079,7 +4079,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>G12</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>187500000</v>
       </c>
       <c r="J77" t="n">
         <v>200</v>
@@ -4119,7 +4119,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>750000000</v>
+        <v>93750000</v>
       </c>
       <c r="J78" t="n">
         <v>200</v>
@@ -4159,7 +4159,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>375000000</v>
+        <v>46875000</v>
       </c>
       <c r="J79" t="n">
         <v>200</v>
@@ -4199,7 +4199,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>187500000</v>
+        <v>23437500</v>
       </c>
       <c r="J80" t="n">
         <v>200</v>
@@ -4239,7 +4239,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>93750000</v>
+        <v>11718750</v>
       </c>
       <c r="J81" t="n">
         <v>200</v>
@@ -4279,7 +4279,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>46875000</v>
+        <v>5859375</v>
       </c>
       <c r="J82" t="n">
         <v>200</v>
@@ -4319,7 +4319,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>23437500</v>
+        <v>2929687.5</v>
       </c>
       <c r="J83" t="n">
         <v>200</v>
@@ -4359,7 +4359,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>11718750</v>
+        <v>1464843.75</v>
       </c>
       <c r="J84" t="n">
         <v>200</v>
@@ -4399,7 +4399,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>5859375</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>200</v>
@@ -4479,7 +4479,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>2929687.5</v>
+        <v>750000000</v>
       </c>
       <c r="J87" t="n">
         <v>200</v>
@@ -4519,7 +4519,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1464843.75</v>
+        <v>375000000</v>
       </c>
       <c r="J88" t="n">
         <v>200</v>
@@ -4559,7 +4559,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>732421.875</v>
+        <v>187500000</v>
       </c>
       <c r="J89" t="n">
         <v>200</v>
@@ -4599,7 +4599,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>750000000</v>
+        <v>93750000</v>
       </c>
       <c r="J90" t="n">
         <v>200</v>
@@ -4639,7 +4639,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>375000000</v>
+        <v>46875000</v>
       </c>
       <c r="J91" t="n">
         <v>200</v>
@@ -4679,7 +4679,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>187500000</v>
+        <v>23437500</v>
       </c>
       <c r="J92" t="n">
         <v>200</v>
@@ -4719,7 +4719,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>93750000</v>
+        <v>11718750</v>
       </c>
       <c r="J93" t="n">
         <v>200</v>
@@ -4759,7 +4759,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>46875000</v>
+        <v>5859375</v>
       </c>
       <c r="J94" t="n">
         <v>200</v>
@@ -4799,7 +4799,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>23437500</v>
+        <v>2929687.5</v>
       </c>
       <c r="J95" t="n">
         <v>200</v>
@@ -4839,7 +4839,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>11718750</v>
+        <v>1464843.75</v>
       </c>
       <c r="J96" t="n">
         <v>200</v>
@@ -4879,7 +4879,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>5859375</v>
+        <v>732421.875</v>
       </c>
       <c r="J97" t="n">
         <v>200</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.716</t>
+          <t>MeasureFluorescence.measurements.404</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>fluoroscein (uM)</t>
+          <t>fluorescein (uM)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -5035,7 +5035,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5054,7 +5054,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5075,7 +5075,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5115,7 +5115,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5155,7 +5155,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5174,7 +5174,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5195,7 +5195,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5214,7 +5214,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5235,7 +5235,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5275,7 +5275,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5294,7 +5294,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5315,7 +5315,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5334,7 +5334,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5355,7 +5355,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5435,7 +5435,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5454,7 +5454,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5515,7 +5515,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5534,7 +5534,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5574,7 +5574,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5595,7 +5595,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -5635,7 +5635,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -5675,7 +5675,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5694,7 +5694,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -5755,7 +5755,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -5795,7 +5795,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5814,7 +5814,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -5835,7 +5835,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -5875,7 +5875,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -5915,7 +5915,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5934,7 +5934,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -5995,7 +5995,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001953125</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -6035,7 +6035,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0009765625</v>
+        <v>0.25</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -6075,7 +6075,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -6115,7 +6115,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -6155,7 +6155,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.25</v>
+        <v>0.03125</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -6195,7 +6195,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.125</v>
+        <v>0.015625</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -6235,7 +6235,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0625</v>
+        <v>0.0078125</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -6275,7 +6275,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03125</v>
+        <v>0.00390625</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -6315,7 +6315,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.015625</v>
+        <v>0.001953125</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -6355,7 +6355,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0078125</v>
+        <v>0.0009765625</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -6395,7 +6395,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -6475,7 +6475,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001953125</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -6515,7 +6515,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0009765625</v>
+        <v>0.25</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -6555,7 +6555,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -6595,7 +6595,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -6635,7 +6635,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.25</v>
+        <v>0.03125</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -6675,7 +6675,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.125</v>
+        <v>0.015625</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0625</v>
+        <v>0.0078125</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -6755,7 +6755,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03125</v>
+        <v>0.00390625</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -6795,7 +6795,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.015625</v>
+        <v>0.001953125</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -6835,7 +6835,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0078125</v>
+        <v>0.0009765625</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -6875,7 +6875,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -6955,7 +6955,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -6995,7 +6995,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -7035,7 +7035,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -7075,7 +7075,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -7115,7 +7115,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -7155,7 +7155,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -7195,7 +7195,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -7235,7 +7235,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -7275,7 +7275,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -7315,7 +7315,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7340,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -7355,7 +7355,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -7435,7 +7435,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -7475,7 +7475,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -7515,7 +7515,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -7555,7 +7555,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -7595,7 +7595,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7620,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -7675,7 +7675,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -7715,7 +7715,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7740,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -7755,7 +7755,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -7795,7 +7795,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -7835,7 +7835,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -7915,7 +7915,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>2929687.5</v>
+        <v>750000000</v>
       </c>
       <c r="J75" t="n">
         <v>200</v>
@@ -7955,7 +7955,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1464843.75</v>
+        <v>375000000</v>
       </c>
       <c r="J76" t="n">
         <v>200</v>
@@ -7995,7 +7995,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>G12</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>187500000</v>
       </c>
       <c r="J77" t="n">
         <v>200</v>
@@ -8035,7 +8035,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>750000000</v>
+        <v>93750000</v>
       </c>
       <c r="J78" t="n">
         <v>200</v>
@@ -8075,7 +8075,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>375000000</v>
+        <v>46875000</v>
       </c>
       <c r="J79" t="n">
         <v>200</v>
@@ -8115,7 +8115,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>187500000</v>
+        <v>23437500</v>
       </c>
       <c r="J80" t="n">
         <v>200</v>
@@ -8155,7 +8155,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>93750000</v>
+        <v>11718750</v>
       </c>
       <c r="J81" t="n">
         <v>200</v>
@@ -8195,7 +8195,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>46875000</v>
+        <v>5859375</v>
       </c>
       <c r="J82" t="n">
         <v>200</v>
@@ -8235,7 +8235,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>23437500</v>
+        <v>2929687.5</v>
       </c>
       <c r="J83" t="n">
         <v>200</v>
@@ -8275,7 +8275,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>11718750</v>
+        <v>1464843.75</v>
       </c>
       <c r="J84" t="n">
         <v>200</v>
@@ -8315,7 +8315,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>5859375</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>200</v>
@@ -8395,7 +8395,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -8423,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>2929687.5</v>
+        <v>750000000</v>
       </c>
       <c r="J87" t="n">
         <v>200</v>
@@ -8435,7 +8435,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1464843.75</v>
+        <v>375000000</v>
       </c>
       <c r="J88" t="n">
         <v>200</v>
@@ -8475,7 +8475,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>732421.875</v>
+        <v>187500000</v>
       </c>
       <c r="J89" t="n">
         <v>200</v>
@@ -8515,7 +8515,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>750000000</v>
+        <v>93750000</v>
       </c>
       <c r="J90" t="n">
         <v>200</v>
@@ -8555,7 +8555,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>375000000</v>
+        <v>46875000</v>
       </c>
       <c r="J91" t="n">
         <v>200</v>
@@ -8595,7 +8595,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>187500000</v>
+        <v>23437500</v>
       </c>
       <c r="J92" t="n">
         <v>200</v>
@@ -8635,7 +8635,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>93750000</v>
+        <v>11718750</v>
       </c>
       <c r="J93" t="n">
         <v>200</v>
@@ -8675,7 +8675,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>46875000</v>
+        <v>5859375</v>
       </c>
       <c r="J94" t="n">
         <v>200</v>
@@ -8715,7 +8715,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>23437500</v>
+        <v>2929687.5</v>
       </c>
       <c r="J95" t="n">
         <v>200</v>
@@ -8755,7 +8755,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>11718750</v>
+        <v>1464843.75</v>
       </c>
       <c r="J96" t="n">
         <v>200</v>
@@ -8795,7 +8795,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>5859375</v>
+        <v>732421.875</v>
       </c>
       <c r="J97" t="n">
         <v>200</v>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureAbsorbance.measurements.723</t>
+          <t>MeasureAbsorbance.measurements.128</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>fluoroscein (uM)</t>
+          <t>fluorescein (uM)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -8931,7 +8931,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -8961,7 +8961,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8970,7 +8970,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -8991,7 +8991,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9000,7 +9000,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9030,7 +9030,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -9051,7 +9051,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -9060,7 +9060,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -9081,7 +9081,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -9090,7 +9090,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -9111,7 +9111,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9120,7 +9120,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -9141,7 +9141,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -9171,7 +9171,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9180,7 +9180,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -9201,7 +9201,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9210,7 +9210,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -9231,7 +9231,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9240,7 +9240,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9291,7 +9291,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -9300,7 +9300,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -9330,7 +9330,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -9351,7 +9351,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -9381,7 +9381,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -9390,7 +9390,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -9411,7 +9411,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -9420,7 +9420,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -9441,7 +9441,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -9450,7 +9450,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -9471,7 +9471,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -9480,7 +9480,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -9531,7 +9531,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -9540,7 +9540,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -9570,7 +9570,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -9591,7 +9591,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -9600,7 +9600,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -9651,7 +9651,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001953125</v>
+        <v>0.5</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -9681,7 +9681,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0009765625</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -9753,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -9771,7 +9771,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>0.03125</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.125</v>
+        <v>0.015625</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -9831,7 +9831,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -9843,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0625</v>
+        <v>0.0078125</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -9861,7 +9861,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03125</v>
+        <v>0.00390625</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -9891,7 +9891,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.015625</v>
+        <v>0.001953125</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -9921,7 +9921,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0078125</v>
+        <v>0.0009765625</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -10011,7 +10011,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001953125</v>
+        <v>0.5</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0009765625</v>
+        <v>0.25</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -10071,7 +10071,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -10083,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -10101,7 +10101,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -10131,7 +10131,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -10143,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.25</v>
+        <v>0.03125</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -10161,7 +10161,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -10173,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.125</v>
+        <v>0.015625</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0625</v>
+        <v>0.0078125</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -10221,7 +10221,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03125</v>
+        <v>0.00390625</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -10251,7 +10251,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -10263,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.015625</v>
+        <v>0.001953125</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0078125</v>
+        <v>0.0009765625</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -10311,7 +10311,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10323,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -10371,7 +10371,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -10401,7 +10401,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -10461,7 +10461,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -10491,7 +10491,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -10521,7 +10521,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -10551,7 +10551,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -10581,7 +10581,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -10641,7 +10641,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -10731,7 +10731,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -10791,7 +10791,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -10806,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -10821,7 +10821,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -10836,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -10851,7 +10851,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -10866,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -10881,7 +10881,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -10926,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -10941,7 +10941,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -10971,7 +10971,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -11001,7 +11001,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -11016,7 +11016,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -11031,7 +11031,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -11046,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -11091,7 +11091,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>2929687.5</v>
+        <v>750000000</v>
       </c>
       <c r="H75" t="n">
         <v>200</v>
@@ -11121,7 +11121,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1464843.75</v>
+        <v>375000000</v>
       </c>
       <c r="H76" t="n">
         <v>200</v>
@@ -11151,7 +11151,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>G12</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>187500000</v>
       </c>
       <c r="H77" t="n">
         <v>200</v>
@@ -11181,7 +11181,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>750000000</v>
+        <v>93750000</v>
       </c>
       <c r="H78" t="n">
         <v>200</v>
@@ -11211,7 +11211,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>375000000</v>
+        <v>46875000</v>
       </c>
       <c r="H79" t="n">
         <v>200</v>
@@ -11241,7 +11241,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>187500000</v>
+        <v>23437500</v>
       </c>
       <c r="H80" t="n">
         <v>200</v>
@@ -11271,7 +11271,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>93750000</v>
+        <v>11718750</v>
       </c>
       <c r="H81" t="n">
         <v>200</v>
@@ -11301,7 +11301,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>46875000</v>
+        <v>5859375</v>
       </c>
       <c r="H82" t="n">
         <v>200</v>
@@ -11331,7 +11331,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -11349,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>23437500</v>
+        <v>2929687.5</v>
       </c>
       <c r="H83" t="n">
         <v>200</v>
@@ -11361,7 +11361,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>11718750</v>
+        <v>1464843.75</v>
       </c>
       <c r="H84" t="n">
         <v>200</v>
@@ -11391,7 +11391,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>5859375</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>200</v>
@@ -11451,7 +11451,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>2929687.5</v>
+        <v>750000000</v>
       </c>
       <c r="H87" t="n">
         <v>200</v>
@@ -11481,7 +11481,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1464843.75</v>
+        <v>375000000</v>
       </c>
       <c r="H88" t="n">
         <v>200</v>
@@ -11511,7 +11511,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>732421.875</v>
+        <v>187500000</v>
       </c>
       <c r="H89" t="n">
         <v>200</v>
@@ -11541,7 +11541,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -11559,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>750000000</v>
+        <v>93750000</v>
       </c>
       <c r="H90" t="n">
         <v>200</v>
@@ -11571,7 +11571,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -11589,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>375000000</v>
+        <v>46875000</v>
       </c>
       <c r="H91" t="n">
         <v>200</v>
@@ -11601,7 +11601,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>187500000</v>
+        <v>23437500</v>
       </c>
       <c r="H92" t="n">
         <v>200</v>
@@ -11631,7 +11631,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -11649,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>93750000</v>
+        <v>11718750</v>
       </c>
       <c r="H93" t="n">
         <v>200</v>
@@ -11661,7 +11661,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>46875000</v>
+        <v>5859375</v>
       </c>
       <c r="H94" t="n">
         <v>200</v>
@@ -11691,7 +11691,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>23437500</v>
+        <v>2929687.5</v>
       </c>
       <c r="H95" t="n">
         <v>200</v>
@@ -11721,7 +11721,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>11718750</v>
+        <v>1464843.75</v>
       </c>
       <c r="H96" t="n">
         <v>200</v>
@@ -11751,7 +11751,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>5859375</v>
+        <v>732421.875</v>
       </c>
       <c r="H97" t="n">
         <v>200</v>
@@ -11805,7 +11805,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.736</t>
+          <t>MeasureFluorescence.measurements.138</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>fluoroscein (uM)</t>
+          <t>fluorescein (uM)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -11855,17 +11855,17 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.915</t>
+          <t>MeasureFluorescence.measurements.586</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.716</t>
+          <t>MeasureFluorescence.measurements.404</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MeasureAbsorbance.measurements.723</t>
+          <t>MeasureAbsorbance.measurements.128</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -11926,7 +11926,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -11975,7 +11975,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -11995,7 +11995,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -12024,7 +12024,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -12073,7 +12073,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -12122,7 +12122,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -12171,7 +12171,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -12191,7 +12191,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -12220,7 +12220,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -12240,7 +12240,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -12269,7 +12269,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -12289,7 +12289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -12318,7 +12318,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -12367,7 +12367,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -12387,7 +12387,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -12416,7 +12416,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -12436,7 +12436,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -12514,7 +12514,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -12534,7 +12534,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -12563,7 +12563,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -12612,7 +12612,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -12661,7 +12661,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -12681,7 +12681,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -12710,7 +12710,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -12730,7 +12730,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -12759,7 +12759,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -12779,7 +12779,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -12808,7 +12808,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -12828,7 +12828,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -12857,7 +12857,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -12877,7 +12877,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -12906,7 +12906,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -12926,7 +12926,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -12955,7 +12955,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -12975,7 +12975,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -13004,7 +13004,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -13102,7 +13102,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001953125</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -13151,7 +13151,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -13174,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0009765625</v>
+        <v>0.25</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -13200,7 +13200,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -13249,7 +13249,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -13298,7 +13298,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.25</v>
+        <v>0.03125</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -13347,7 +13347,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.125</v>
+        <v>0.015625</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -13396,7 +13396,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -13419,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0625</v>
+        <v>0.0078125</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -13445,7 +13445,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03125</v>
+        <v>0.00390625</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -13494,7 +13494,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -13517,7 +13517,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.015625</v>
+        <v>0.001953125</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -13543,7 +13543,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0078125</v>
+        <v>0.0009765625</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -13592,7 +13592,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -13615,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -13690,7 +13690,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001953125</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -13739,7 +13739,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -13762,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0009765625</v>
+        <v>0.25</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -13788,7 +13788,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -13837,7 +13837,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -13860,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -13886,7 +13886,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -13909,7 +13909,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.25</v>
+        <v>0.03125</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -13935,7 +13935,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -13958,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.125</v>
+        <v>0.015625</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -13984,7 +13984,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -14007,7 +14007,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0625</v>
+        <v>0.0078125</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -14033,7 +14033,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03125</v>
+        <v>0.00390625</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -14082,7 +14082,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -14105,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.015625</v>
+        <v>0.001953125</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -14131,7 +14131,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -14154,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0078125</v>
+        <v>0.0009765625</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -14180,7 +14180,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -14278,7 +14278,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -14327,7 +14327,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -14376,7 +14376,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -14425,7 +14425,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -14474,7 +14474,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -14500,7 +14500,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -14523,7 +14523,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -14572,7 +14572,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -14598,7 +14598,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -14621,7 +14621,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -14670,7 +14670,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -14696,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -14719,7 +14719,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -14768,7 +14768,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -14794,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -14866,7 +14866,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -14892,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -14915,7 +14915,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -14941,7 +14941,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -14964,7 +14964,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -14990,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -15013,7 +15013,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -15039,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -15062,7 +15062,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -15088,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -15111,7 +15111,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -15160,7 +15160,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -15186,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -15209,7 +15209,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -15258,7 +15258,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -15307,7 +15307,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -15333,7 +15333,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -15356,7 +15356,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -15454,7 +15454,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>2929687.5</v>
+        <v>750000000</v>
       </c>
       <c r="J75" t="n">
         <v>200</v>
@@ -15503,7 +15503,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1464843.75</v>
+        <v>375000000</v>
       </c>
       <c r="J76" t="n">
         <v>200</v>
@@ -15552,7 +15552,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>G12</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -15581,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>187500000</v>
       </c>
       <c r="J77" t="n">
         <v>200</v>
@@ -15601,7 +15601,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -15630,7 +15630,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>750000000</v>
+        <v>93750000</v>
       </c>
       <c r="J78" t="n">
         <v>200</v>
@@ -15650,7 +15650,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -15679,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>375000000</v>
+        <v>46875000</v>
       </c>
       <c r="J79" t="n">
         <v>200</v>
@@ -15699,7 +15699,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -15728,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>187500000</v>
+        <v>23437500</v>
       </c>
       <c r="J80" t="n">
         <v>200</v>
@@ -15748,7 +15748,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -15777,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>93750000</v>
+        <v>11718750</v>
       </c>
       <c r="J81" t="n">
         <v>200</v>
@@ -15797,7 +15797,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -15826,7 +15826,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>46875000</v>
+        <v>5859375</v>
       </c>
       <c r="J82" t="n">
         <v>200</v>
@@ -15846,7 +15846,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>23437500</v>
+        <v>2929687.5</v>
       </c>
       <c r="J83" t="n">
         <v>200</v>
@@ -15895,7 +15895,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -15924,7 +15924,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>11718750</v>
+        <v>1464843.75</v>
       </c>
       <c r="J84" t="n">
         <v>200</v>
@@ -15944,7 +15944,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -15973,7 +15973,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>5859375</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>200</v>
@@ -16042,7 +16042,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -16071,7 +16071,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>2929687.5</v>
+        <v>750000000</v>
       </c>
       <c r="J87" t="n">
         <v>200</v>
@@ -16091,7 +16091,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -16120,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1464843.75</v>
+        <v>375000000</v>
       </c>
       <c r="J88" t="n">
         <v>200</v>
@@ -16140,7 +16140,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>732421.875</v>
+        <v>187500000</v>
       </c>
       <c r="J89" t="n">
         <v>200</v>
@@ -16189,7 +16189,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -16218,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>750000000</v>
+        <v>93750000</v>
       </c>
       <c r="J90" t="n">
         <v>200</v>
@@ -16238,7 +16238,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>375000000</v>
+        <v>46875000</v>
       </c>
       <c r="J91" t="n">
         <v>200</v>
@@ -16287,7 +16287,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -16316,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>187500000</v>
+        <v>23437500</v>
       </c>
       <c r="J92" t="n">
         <v>200</v>
@@ -16336,7 +16336,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -16365,7 +16365,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>93750000</v>
+        <v>11718750</v>
       </c>
       <c r="J93" t="n">
         <v>200</v>
@@ -16385,7 +16385,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>46875000</v>
+        <v>5859375</v>
       </c>
       <c r="J94" t="n">
         <v>200</v>
@@ -16434,7 +16434,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -16463,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>23437500</v>
+        <v>2929687.5</v>
       </c>
       <c r="J95" t="n">
         <v>200</v>
@@ -16483,7 +16483,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -16512,7 +16512,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>11718750</v>
+        <v>1464843.75</v>
       </c>
       <c r="J96" t="n">
         <v>200</v>
@@ -16532,7 +16532,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -16561,7 +16561,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>5859375</v>
+        <v>732421.875</v>
       </c>
       <c r="J97" t="n">
         <v>200</v>
@@ -16605,7 +16605,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.736</t>
+          <t>MeasureFluorescence.measurements.138</t>
         </is>
       </c>
     </row>
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.915</t>
+          <t>MeasureFluorescence.measurements.586</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.915</t>
+          <t>MeasureFluorescence.measurements.586</t>
         </is>
       </c>
     </row>
@@ -17577,7 +17577,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.716</t>
+          <t>MeasureFluorescence.measurements.404</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -18151,7 +18151,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.716</t>
+          <t>MeasureFluorescence.measurements.404</t>
         </is>
       </c>
     </row>
@@ -18350,7 +18350,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureAbsorbance.measurements.723</t>
+          <t>MeasureAbsorbance.measurements.128</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureAbsorbance.measurements.723</t>
+          <t>MeasureAbsorbance.measurements.128</t>
         </is>
       </c>
     </row>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.736</t>
+          <t>MeasureFluorescence.measurements.138</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -18893,7 +18893,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>fluoroscein (uM)</t>
+          <t>fluorescein (uM)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -18965,7 +18965,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -18984,7 +18984,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -19005,7 +19005,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -19024,7 +19024,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -19045,7 +19045,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -19064,7 +19064,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -19085,7 +19085,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -19104,7 +19104,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -19125,7 +19125,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -19144,7 +19144,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -19165,7 +19165,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -19184,7 +19184,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -19205,7 +19205,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -19224,7 +19224,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -19245,7 +19245,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -19264,7 +19264,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -19285,7 +19285,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -19304,7 +19304,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -19325,7 +19325,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -19344,7 +19344,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -19365,7 +19365,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -19384,7 +19384,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -19445,7 +19445,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -19464,7 +19464,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -19485,7 +19485,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -19504,7 +19504,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -19525,7 +19525,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -19544,7 +19544,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -19565,7 +19565,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -19584,7 +19584,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -19605,7 +19605,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -19624,7 +19624,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -19645,7 +19645,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -19664,7 +19664,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -19685,7 +19685,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -19704,7 +19704,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -19725,7 +19725,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -19744,7 +19744,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -19765,7 +19765,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -19784,7 +19784,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -19805,7 +19805,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -19824,7 +19824,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -19845,7 +19845,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -19864,7 +19864,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -19925,7 +19925,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -19947,7 +19947,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001953125</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -19965,7 +19965,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -19987,7 +19987,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0009765625</v>
+        <v>0.25</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -20005,7 +20005,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -20027,7 +20027,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -20045,7 +20045,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -20067,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -20085,7 +20085,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -20107,7 +20107,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.25</v>
+        <v>0.03125</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -20125,7 +20125,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.125</v>
+        <v>0.015625</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -20165,7 +20165,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -20187,7 +20187,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0625</v>
+        <v>0.0078125</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -20205,7 +20205,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03125</v>
+        <v>0.00390625</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -20245,7 +20245,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -20267,7 +20267,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.015625</v>
+        <v>0.001953125</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -20285,7 +20285,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -20307,7 +20307,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0078125</v>
+        <v>0.0009765625</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -20325,7 +20325,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -20347,7 +20347,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -20405,7 +20405,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -20427,7 +20427,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001953125</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -20445,7 +20445,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -20467,7 +20467,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0009765625</v>
+        <v>0.25</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -20485,7 +20485,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -20507,7 +20507,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -20525,7 +20525,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -20547,7 +20547,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -20565,7 +20565,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -20587,7 +20587,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.25</v>
+        <v>0.03125</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -20605,7 +20605,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -20627,7 +20627,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.125</v>
+        <v>0.015625</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -20645,7 +20645,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -20667,7 +20667,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0625</v>
+        <v>0.0078125</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -20685,7 +20685,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -20707,7 +20707,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03125</v>
+        <v>0.00390625</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -20725,7 +20725,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -20747,7 +20747,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.015625</v>
+        <v>0.001953125</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -20765,7 +20765,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -20787,7 +20787,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0078125</v>
+        <v>0.0009765625</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -20805,7 +20805,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -20827,7 +20827,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -20885,7 +20885,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -20910,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -20925,7 +20925,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -20950,7 +20950,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -20965,7 +20965,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -20990,7 +20990,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -21005,7 +21005,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -21030,7 +21030,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -21045,7 +21045,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -21070,7 +21070,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -21085,7 +21085,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -21110,7 +21110,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -21125,7 +21125,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -21150,7 +21150,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -21165,7 +21165,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -21190,7 +21190,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -21205,7 +21205,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -21230,7 +21230,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -21245,7 +21245,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -21270,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -21285,7 +21285,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -21310,7 +21310,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -21365,7 +21365,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -21390,7 +21390,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.009765625</v>
+        <v>2.5</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -21405,7 +21405,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -21430,7 +21430,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0048828125</v>
+        <v>1.25</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -21445,7 +21445,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -21485,7 +21485,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -21510,7 +21510,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>2.5</v>
+        <v>0.3125</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -21525,7 +21525,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -21550,7 +21550,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1.25</v>
+        <v>0.15625</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -21565,7 +21565,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -21590,7 +21590,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.625</v>
+        <v>0.078125</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -21605,7 +21605,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -21630,7 +21630,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -21645,7 +21645,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.15625</v>
+        <v>0.01953125</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -21685,7 +21685,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -21710,7 +21710,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -21725,7 +21725,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -21765,7 +21765,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -21790,7 +21790,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01953125</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -21845,7 +21845,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -21873,7 +21873,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>2929687.5</v>
+        <v>750000000</v>
       </c>
       <c r="J75" t="n">
         <v>200</v>
@@ -21885,7 +21885,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -21913,7 +21913,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1464843.75</v>
+        <v>375000000</v>
       </c>
       <c r="J76" t="n">
         <v>200</v>
@@ -21925,7 +21925,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>G12</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -21953,7 +21953,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>187500000</v>
       </c>
       <c r="J77" t="n">
         <v>200</v>
@@ -21965,7 +21965,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -21993,7 +21993,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>750000000</v>
+        <v>93750000</v>
       </c>
       <c r="J78" t="n">
         <v>200</v>
@@ -22005,7 +22005,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -22033,7 +22033,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>375000000</v>
+        <v>46875000</v>
       </c>
       <c r="J79" t="n">
         <v>200</v>
@@ -22045,7 +22045,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -22073,7 +22073,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>187500000</v>
+        <v>23437500</v>
       </c>
       <c r="J80" t="n">
         <v>200</v>
@@ -22085,7 +22085,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -22113,7 +22113,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>93750000</v>
+        <v>11718750</v>
       </c>
       <c r="J81" t="n">
         <v>200</v>
@@ -22125,7 +22125,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -22153,7 +22153,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>46875000</v>
+        <v>5859375</v>
       </c>
       <c r="J82" t="n">
         <v>200</v>
@@ -22165,7 +22165,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -22193,7 +22193,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>23437500</v>
+        <v>2929687.5</v>
       </c>
       <c r="J83" t="n">
         <v>200</v>
@@ -22205,7 +22205,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -22233,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>11718750</v>
+        <v>1464843.75</v>
       </c>
       <c r="J84" t="n">
         <v>200</v>
@@ -22245,7 +22245,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -22273,7 +22273,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>5859375</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>200</v>
@@ -22325,7 +22325,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -22353,7 +22353,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>2929687.5</v>
+        <v>750000000</v>
       </c>
       <c r="J87" t="n">
         <v>200</v>
@@ -22365,7 +22365,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -22393,7 +22393,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1464843.75</v>
+        <v>375000000</v>
       </c>
       <c r="J88" t="n">
         <v>200</v>
@@ -22405,7 +22405,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>732421.875</v>
+        <v>187500000</v>
       </c>
       <c r="J89" t="n">
         <v>200</v>
@@ -22445,7 +22445,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -22473,7 +22473,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>750000000</v>
+        <v>93750000</v>
       </c>
       <c r="J90" t="n">
         <v>200</v>
@@ -22485,7 +22485,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -22513,7 +22513,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>375000000</v>
+        <v>46875000</v>
       </c>
       <c r="J91" t="n">
         <v>200</v>
@@ -22525,7 +22525,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>187500000</v>
+        <v>23437500</v>
       </c>
       <c r="J92" t="n">
         <v>200</v>
@@ -22565,7 +22565,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -22593,7 +22593,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>93750000</v>
+        <v>11718750</v>
       </c>
       <c r="J93" t="n">
         <v>200</v>
@@ -22605,7 +22605,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -22633,7 +22633,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>46875000</v>
+        <v>5859375</v>
       </c>
       <c r="J94" t="n">
         <v>200</v>
@@ -22645,7 +22645,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>23437500</v>
+        <v>2929687.5</v>
       </c>
       <c r="J95" t="n">
         <v>200</v>
@@ -22685,7 +22685,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -22713,7 +22713,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>11718750</v>
+        <v>1464843.75</v>
       </c>
       <c r="J96" t="n">
         <v>200</v>
@@ -22725,7 +22725,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>5859375</v>
+        <v>732421.875</v>
       </c>
       <c r="J97" t="n">
         <v>200</v>

--- a/examples/protocols/multicolor-particle-calibration/artifacts/multicolor-particle-calibration_template.xlsx
+++ b/examples/protocols/multicolor-particle-calibration/artifacts/multicolor-particle-calibration_template.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.138</t>
+          <t>MeasureFluorescence.measurements.862</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.586</t>
+          <t>MeasureFluorescence.measurements.18</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.404</t>
+          <t>MeasureFluorescence.measurements.824</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureAbsorbance.measurements.128</t>
+          <t>MeasureAbsorbance.measurements.341</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.138</t>
+          <t>MeasureFluorescence.measurements.862</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -11855,17 +11855,17 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.586</t>
+          <t>MeasureFluorescence.measurements.18</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.404</t>
+          <t>MeasureFluorescence.measurements.824</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MeasureAbsorbance.measurements.128</t>
+          <t>MeasureAbsorbance.measurements.341</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.138</t>
+          <t>MeasureFluorescence.measurements.862</t>
         </is>
       </c>
     </row>
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.586</t>
+          <t>MeasureFluorescence.measurements.18</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.586</t>
+          <t>MeasureFluorescence.measurements.18</t>
         </is>
       </c>
     </row>
@@ -17577,7 +17577,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.404</t>
+          <t>MeasureFluorescence.measurements.824</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -18151,7 +18151,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.404</t>
+          <t>MeasureFluorescence.measurements.824</t>
         </is>
       </c>
     </row>
@@ -18350,7 +18350,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureAbsorbance.measurements.128</t>
+          <t>MeasureAbsorbance.measurements.341</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureAbsorbance.measurements.128</t>
+          <t>MeasureAbsorbance.measurements.341</t>
         </is>
       </c>
     </row>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.138</t>
+          <t>MeasureFluorescence.measurements.862</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/examples/protocols/multicolor-particle-calibration/artifacts/multicolor-particle-calibration_template.xlsx
+++ b/examples/protocols/multicolor-particle-calibration/artifacts/multicolor-particle-calibration_template.xlsx
@@ -453,22 +453,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.862</t>
+          <t>MeasureFluorescence.measurements.339</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>emissionWavelength</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>emissionBandpassWidth</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>excitationWavelength</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>emissionWavelength</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>emissionBandpassWidth</t>
         </is>
       </c>
     </row>
@@ -480,17 +480,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -502,17 +502,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -524,17 +524,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -546,17 +546,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -568,17 +568,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -590,17 +590,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -612,17 +612,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -634,17 +634,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -678,17 +678,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -700,17 +700,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -744,17 +744,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -788,17 +788,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -810,17 +810,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -832,17 +832,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -854,17 +854,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -898,17 +898,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -920,17 +920,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -942,17 +942,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -964,17 +964,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction61/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction67/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.18</t>
+          <t>MeasureFluorescence.measurements.905</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.824</t>
+          <t>MeasureFluorescence.measurements.96</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>emissionBandpassWidth</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>emissionWavelength</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>emissionBandpassWidth</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -6925,12 +6925,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -6965,12 +6965,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -7005,12 +7005,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -7045,12 +7045,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -7085,12 +7085,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -7125,12 +7125,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -7165,12 +7165,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -7205,12 +7205,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -7245,12 +7245,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -7285,12 +7285,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -7325,12 +7325,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -7365,12 +7365,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -7405,12 +7405,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -7445,12 +7445,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -7485,12 +7485,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -7525,12 +7525,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -7565,12 +7565,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -7605,12 +7605,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -7645,12 +7645,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -7685,12 +7685,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -7725,12 +7725,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -7765,12 +7765,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -7805,12 +7805,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -7845,12 +7845,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureAbsorbance.measurements.341</t>
+          <t>MeasureAbsorbance.measurements.644</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -11805,24 +11805,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.862</t>
+          <t>MeasureFluorescence.measurements.339</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>emissionWavelength</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>emissionBandpassWidth</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>excitationWavelength</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>emissionWavelength</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>emissionBandpassWidth</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fluorescein (uM)</t>
@@ -11855,17 +11855,17 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.18</t>
+          <t>MeasureFluorescence.measurements.905</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.824</t>
+          <t>MeasureFluorescence.measurements.96</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MeasureAbsorbance.measurements.341</t>
+          <t>MeasureAbsorbance.measurements.644</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -11883,17 +11883,17 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -11932,17 +11932,17 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -11981,17 +11981,17 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -12030,17 +12030,17 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -12079,17 +12079,17 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -12128,17 +12128,17 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -12177,17 +12177,17 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -12226,17 +12226,17 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -12275,17 +12275,17 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -12324,17 +12324,17 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -12373,17 +12373,17 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12422,17 +12422,17 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12471,17 +12471,17 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -12520,17 +12520,17 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -12569,17 +12569,17 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -12618,17 +12618,17 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -12667,17 +12667,17 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -12716,17 +12716,17 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12765,17 +12765,17 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12814,17 +12814,17 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -12863,17 +12863,17 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -12912,17 +12912,17 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12961,17 +12961,17 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13010,17 +13010,17 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13059,17 +13059,17 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -13108,17 +13108,17 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -13157,17 +13157,17 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -13206,17 +13206,17 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -13255,17 +13255,17 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -13304,17 +13304,17 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -13353,17 +13353,17 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -13402,17 +13402,17 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -13451,17 +13451,17 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -13500,17 +13500,17 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -13549,17 +13549,17 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -13598,17 +13598,17 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -13647,17 +13647,17 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -13696,17 +13696,17 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -13745,17 +13745,17 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -13794,17 +13794,17 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -13843,17 +13843,17 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -13892,17 +13892,17 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -13941,17 +13941,17 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -13990,17 +13990,17 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -14039,17 +14039,17 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -14088,17 +14088,17 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -14137,17 +14137,17 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -14186,17 +14186,17 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -14235,17 +14235,17 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -14284,17 +14284,17 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -14333,17 +14333,17 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -14382,17 +14382,17 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -14431,17 +14431,17 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -14480,17 +14480,17 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -14529,17 +14529,17 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -14578,17 +14578,17 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -14627,17 +14627,17 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -14676,17 +14676,17 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -14725,17 +14725,17 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -14774,17 +14774,17 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -14823,17 +14823,17 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -14872,17 +14872,17 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -14921,17 +14921,17 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -14970,17 +14970,17 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -15019,17 +15019,17 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -15068,17 +15068,17 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -15117,17 +15117,17 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -15166,17 +15166,17 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -15215,17 +15215,17 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -15264,17 +15264,17 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -15313,17 +15313,17 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -15362,17 +15362,17 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
+          <t>450.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>50.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>405.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>50.0 nanometer</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.862</t>
+          <t>MeasureFluorescence.measurements.339</t>
         </is>
       </c>
     </row>
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.18</t>
+          <t>MeasureFluorescence.measurements.905</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -16831,17 +16831,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -16853,17 +16853,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -16875,17 +16875,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -16897,17 +16897,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -16919,17 +16919,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -16941,17 +16941,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -16963,17 +16963,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -16985,17 +16985,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17007,17 +17007,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17029,17 +17029,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17051,17 +17051,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17073,17 +17073,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17095,17 +17095,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17117,17 +17117,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17139,17 +17139,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17161,17 +17161,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17183,17 +17183,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17205,17 +17205,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17227,17 +17227,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17249,17 +17249,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17271,17 +17271,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17293,17 +17293,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17315,17 +17315,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17337,17 +17337,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction62/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction68/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17378,7 +17378,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.18</t>
+          <t>MeasureFluorescence.measurements.905</t>
         </is>
       </c>
     </row>
@@ -17577,7 +17577,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.824</t>
+          <t>MeasureFluorescence.measurements.96</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -17587,12 +17587,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>emissionBandpassWidth</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>emissionWavelength</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>emissionBandpassWidth</t>
         </is>
       </c>
     </row>
@@ -17604,17 +17604,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17626,17 +17626,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17648,17 +17648,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17670,17 +17670,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17692,17 +17692,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17714,17 +17714,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17736,17 +17736,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17758,17 +17758,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17780,17 +17780,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17802,17 +17802,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17824,17 +17824,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17846,17 +17846,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17868,17 +17868,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17890,17 +17890,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17912,17 +17912,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17934,17 +17934,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17956,17 +17956,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -17978,17 +17978,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18000,17 +18000,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18022,17 +18022,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18044,17 +18044,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18066,17 +18066,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18088,17 +18088,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18110,17 +18110,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin2/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin3/LiteralIdentified1/Measure1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction63/ValuePin3/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction69/ValuePin2/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18151,7 +18151,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.824</t>
+          <t>MeasureFluorescence.measurements.96</t>
         </is>
       </c>
     </row>
@@ -18350,7 +18350,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureAbsorbance.measurements.341</t>
+          <t>MeasureAbsorbance.measurements.644</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18379,7 +18379,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18391,7 +18391,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18403,7 +18403,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18415,7 +18415,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18427,7 +18427,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18439,7 +18439,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18451,7 +18451,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18463,7 +18463,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18487,7 +18487,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18499,7 +18499,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18511,7 +18511,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18523,7 +18523,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18535,7 +18535,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18547,7 +18547,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18559,7 +18559,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18571,7 +18571,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18607,7 +18607,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18619,7 +18619,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18643,7 +18643,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://igem.org/engineering/interlab/CallBehaviorAction64/ValuePin1/LiteralIdentified1/Measure1</t>
+          <t>http://igem.org/engineering/interlab/CallBehaviorAction70/ValuePin1/LiteralIdentified1/Measure1</t>
         </is>
       </c>
     </row>
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureAbsorbance.measurements.341</t>
+          <t>MeasureAbsorbance.measurements.644</t>
         </is>
       </c>
     </row>
@@ -18873,22 +18873,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MeasureFluorescence.measurements.862</t>
+          <t>MeasureFluorescence.measurements.339</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>emissionWavelength</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>emissionBandpassWidth</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>excitationWavelength</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>emissionWavelength</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>emissionBandpassWidth</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -18930,17 +18930,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -18970,17 +18970,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -19010,17 +19010,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -19050,17 +19050,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -19090,17 +19090,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -19130,17 +19130,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -19170,17 +19170,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -19210,17 +19210,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -19250,17 +19250,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -19290,17 +19290,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -19330,17 +19330,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -19370,17 +19370,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -19410,17 +19410,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -19450,17 +19450,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -19490,17 +19490,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -19530,17 +19530,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -19570,17 +19570,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -19610,17 +19610,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -19650,17 +19650,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -19690,17 +19690,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -19730,17 +19730,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -19770,17 +19770,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -19810,17 +19810,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -19850,17 +19850,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>530.0 nanometer</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>488.0 nanometer</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>530.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>30.0 nanometer</t>
         </is>
       </c>
       <c r="F25" t="n">

--- a/examples/protocols/multicolor-particle-calibration/artifacts/multicolor-particle-calibration_template.xlsx
+++ b/examples/protocols/multicolor-particle-calibration/artifacts/multicolor-particle-calibration_template.xlsx
@@ -1096,17 +1096,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>emissionWavelength</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>emissionBandpassWidth</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>excitationWavelength</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>emissionWavelength</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>emissionBandpassWidth</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1968,17 +1968,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -2002,17 +2002,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -2070,17 +2070,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -2104,17 +2104,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -2138,17 +2138,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -2172,17 +2172,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2206,17 +2206,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2240,17 +2240,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2274,17 +2274,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2308,17 +2308,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2342,17 +2342,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2373,17 +2373,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2407,17 +2407,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2441,17 +2441,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2475,17 +2475,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2509,17 +2509,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2543,17 +2543,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2577,17 +2577,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2611,17 +2611,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2645,17 +2645,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2679,17 +2679,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2713,17 +2713,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -4429,17 +4429,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>excitationWavelength</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>emissionBandpassWidth</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>emissionWavelength</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>excitationWavelength</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -6111,17 +6111,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -6145,17 +6145,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -6179,17 +6179,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -6213,17 +6213,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -6247,17 +6247,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -6281,17 +6281,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -6315,17 +6315,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -6383,17 +6383,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -6417,17 +6417,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -6451,17 +6451,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -6485,17 +6485,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -6516,17 +6516,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6550,17 +6550,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6584,17 +6584,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6618,17 +6618,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6652,17 +6652,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6686,17 +6686,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6720,17 +6720,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6754,17 +6754,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6788,17 +6788,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6822,17 +6822,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6856,17 +6856,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -6890,17 +6890,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -14969,17 +14969,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>emissionWavelength</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>emissionBandpassWidth</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>excitationWavelength</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>emissionWavelength</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>emissionBandpassWidth</t>
         </is>
       </c>
     </row>
@@ -14996,17 +14996,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15019,17 +15019,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15042,17 +15042,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15065,17 +15065,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15088,17 +15088,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15111,17 +15111,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15134,17 +15134,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15157,17 +15157,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15180,17 +15180,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15203,17 +15203,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15226,17 +15226,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15249,17 +15249,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15272,17 +15272,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15295,17 +15295,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15318,17 +15318,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15341,17 +15341,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15364,17 +15364,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15387,17 +15387,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15410,17 +15410,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15433,17 +15433,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15456,17 +15456,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15479,17 +15479,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15502,17 +15502,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15525,17 +15525,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>610.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.0 nanometer</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>561.0 nanometer</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>610.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>20.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15814,17 +15814,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>excitationWavelength</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>emissionBandpassWidth</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>emissionWavelength</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>excitationWavelength</t>
         </is>
       </c>
     </row>
@@ -15841,17 +15841,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15864,17 +15864,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15887,17 +15887,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15910,17 +15910,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15933,17 +15933,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15956,17 +15956,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -15979,17 +15979,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16002,17 +16002,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16025,17 +16025,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16048,17 +16048,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16071,17 +16071,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16094,17 +16094,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16117,17 +16117,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16140,17 +16140,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16163,17 +16163,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16186,17 +16186,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16209,17 +16209,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16232,17 +16232,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16255,17 +16255,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16278,17 +16278,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16301,17 +16301,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16324,17 +16324,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16347,17 +16347,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -16370,17 +16370,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>405.0 nanometer</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>50.0 nanometer</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>450.0 nanometer</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>405.0 nanometer</t>
         </is>
       </c>
     </row>
